--- a/LLM Timing and Memory Tests.xlsx
+++ b/LLM Timing and Memory Tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanw\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanw\Downloads\4300-rag-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1373227A-BCAC-43F6-B478-F359458BB107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA61633-91D9-434C-AA27-2FF35616940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{BDE260DA-6967-4512-804D-0CB1EFD34F16}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>Faiss</t>
   </si>
   <si>
-    <t>Embedding Query Time (Seconds)</t>
-  </si>
-  <si>
     <t>LLM Response Time (Seconds)</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>3,2,3</t>
+  </si>
+  <si>
+    <t>Embedding Time (Seconds)</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A56B2A7-EF14-4BD9-B3C8-816356ACEDD1}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,25 +550,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -582,27 +582,27 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1.2322</v>
+        <v>41.14</v>
       </c>
       <c r="E2">
-        <v>9.4745000000000008</v>
+        <v>20.93</v>
       </c>
       <c r="F2">
         <f>SUM(D2:E2)</f>
-        <v>10.706700000000001</v>
+        <v>62.07</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>5.71</v>
       </c>
       <c r="H2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I2">
         <f>SUM(G2:H2)</f>
-        <v>0.12000000000000001</v>
+        <v>5.72</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -616,27 +616,27 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>0.3906</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="E3">
-        <v>29.507899999999999</v>
+        <v>11.14</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F19" si="0">SUM(D3:E3)</f>
-        <v>29.898499999999999</v>
+        <v>148.83999999999997</v>
       </c>
       <c r="G3">
-        <v>22.48</v>
+        <v>5.71</v>
       </c>
       <c r="H3">
-        <v>6.56</v>
+        <v>5.42</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I19" si="1">SUM(G3:H3)</f>
-        <v>29.04</v>
+        <v>11.129999999999999</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -650,27 +650,27 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>2.6800999999999999</v>
+        <v>102.83</v>
       </c>
       <c r="E4">
-        <v>38.381599999999999</v>
+        <v>20.89</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>41.061700000000002</v>
+        <v>123.72</v>
       </c>
       <c r="G4">
-        <v>0.18</v>
+        <v>5.53</v>
       </c>
       <c r="H4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>5.5600000000000005</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -684,27 +684,27 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.66569999999999996</v>
+        <v>41.23</v>
       </c>
       <c r="E5">
-        <v>29.314299999999999</v>
+        <v>30.41</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>29.98</v>
+        <v>71.64</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>5.71</v>
       </c>
       <c r="H5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>5.7299999999999995</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -718,27 +718,27 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>0.1895</v>
+        <v>134.97999999999999</v>
       </c>
       <c r="E6">
-        <v>28.750800000000002</v>
+        <v>35.47</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>28.940300000000001</v>
+        <v>170.45</v>
       </c>
       <c r="G6">
-        <v>12.34</v>
+        <v>5.71</v>
       </c>
       <c r="H6">
-        <v>4.6500000000000004</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>16.990000000000002</v>
+        <v>24.77</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -752,27 +752,27 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>3.0749</v>
+        <v>104.48</v>
       </c>
       <c r="E7">
-        <v>32.969099999999997</v>
+        <v>48.75</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>36.043999999999997</v>
+        <v>153.23000000000002</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>5.53</v>
       </c>
       <c r="H7">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>0.24000000000000002</v>
+        <v>5.58</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -785,16 +785,28 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
+      <c r="D8">
+        <v>49.76</v>
+      </c>
+      <c r="E8">
+        <v>22.43</v>
+      </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72.19</v>
+      </c>
+      <c r="G8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.02</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -807,16 +819,28 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
+      <c r="D9">
+        <v>143.49</v>
+      </c>
+      <c r="E9">
+        <v>12.2</v>
+      </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>155.69</v>
+      </c>
+      <c r="G9">
+        <v>178.73</v>
+      </c>
+      <c r="H9">
+        <v>-111.61</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67.11999999999999</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -829,16 +853,28 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
+      <c r="D10">
+        <v>115.27</v>
+      </c>
+      <c r="E10">
+        <v>29.25</v>
+      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>144.51999999999998</v>
+      </c>
+      <c r="G10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H10">
+        <v>0.77</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -851,16 +887,28 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
+      <c r="D11">
+        <v>49.87</v>
+      </c>
+      <c r="E11">
+        <v>35.69</v>
+      </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85.56</v>
+      </c>
+      <c r="G11">
+        <v>0.61</v>
+      </c>
+      <c r="H11">
+        <v>0.79</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -873,16 +921,28 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
+      <c r="D12">
+        <v>142.21</v>
+      </c>
+      <c r="E12">
+        <v>37.94</v>
+      </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>180.15</v>
+      </c>
+      <c r="G12">
+        <v>190.39</v>
+      </c>
+      <c r="H12">
+        <v>0.41</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>190.79999999999998</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -895,16 +955,28 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
+      <c r="D13">
+        <v>112.32</v>
+      </c>
+      <c r="E13">
+        <v>38.450000000000003</v>
+      </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150.76999999999998</v>
+      </c>
+      <c r="G13">
+        <v>1.21</v>
+      </c>
+      <c r="H13">
+        <v>0.01</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -926,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -948,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -970,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -992,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1014,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1036,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/LLM Timing and Memory Tests.xlsx
+++ b/LLM Timing and Memory Tests.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanw\Downloads\4300-rag-final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickhaugen_1/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA61633-91D9-434C-AA27-2FF35616940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAB5890-7642-6141-A0C0-04BE2BC57313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{BDE260DA-6967-4512-804D-0CB1EFD34F16}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{BDE260DA-6967-4512-804D-0CB1EFD34F16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -520,26 +521,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A56B2A7-EF14-4BD9-B3C8-816356ACEDD1}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -605,7 +606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -639,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -673,7 +674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -707,7 +708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,7 +742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -775,7 +776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -809,7 +810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -843,7 +844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -877,7 +878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -911,7 +912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -945,7 +946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -979,7 +980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -989,19 +990,31 @@
       <c r="C14" t="s">
         <v>10</v>
       </c>
+      <c r="D14">
+        <v>26.73</v>
+      </c>
+      <c r="E14">
+        <v>9.73</v>
+      </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.46</v>
+      </c>
+      <c r="G14">
+        <v>-16</v>
+      </c>
+      <c r="H14">
+        <v>-47.44</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-63.44</v>
       </c>
       <c r="K14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1011,19 +1024,31 @@
       <c r="C15" t="s">
         <v>10</v>
       </c>
+      <c r="D15">
+        <v>23.34</v>
+      </c>
+      <c r="E15">
+        <v>40.71</v>
+      </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64.05</v>
+      </c>
+      <c r="G15">
+        <v>-17.7</v>
+      </c>
+      <c r="H15">
+        <v>-47.55</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-65.25</v>
       </c>
       <c r="K15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1033,19 +1058,31 @@
       <c r="C16" t="s">
         <v>10</v>
       </c>
+      <c r="D16">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="E16">
+        <v>36.479999999999997</v>
+      </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72.930000000000007</v>
+      </c>
+      <c r="G16">
+        <v>-14.67</v>
+      </c>
+      <c r="H16">
+        <v>-50.06</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-64.73</v>
       </c>
       <c r="K16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1055,19 +1092,31 @@
       <c r="C17" t="s">
         <v>10</v>
       </c>
+      <c r="D17">
+        <v>27.1</v>
+      </c>
+      <c r="E17">
+        <v>80.2</v>
+      </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107.30000000000001</v>
+      </c>
+      <c r="G17">
+        <v>15.14</v>
+      </c>
+      <c r="H17">
+        <v>-47.45</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-32.31</v>
       </c>
       <c r="K17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1077,19 +1126,31 @@
       <c r="C18" t="s">
         <v>10</v>
       </c>
+      <c r="D18">
+        <v>24.01</v>
+      </c>
+      <c r="E18">
+        <v>71.27</v>
+      </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95.28</v>
+      </c>
+      <c r="G18">
+        <v>-18.920000000000002</v>
+      </c>
+      <c r="H18">
+        <v>71.27</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>52.349999999999994</v>
       </c>
       <c r="K18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1099,13 +1160,25 @@
       <c r="C19" t="s">
         <v>10</v>
       </c>
+      <c r="D19">
+        <v>36.32</v>
+      </c>
+      <c r="E19">
+        <v>53.69</v>
+      </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90.009999999999991</v>
+      </c>
+      <c r="G19">
+        <v>-24.19</v>
+      </c>
+      <c r="H19">
+        <v>-36.549999999999997</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-60.739999999999995</v>
       </c>
       <c r="K19" t="s">
         <v>34</v>

--- a/LLM Timing and Memory Tests.xlsx
+++ b/LLM Timing and Memory Tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickhaugen_1/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirajakmal/Downloads/ds4300/4300-rag-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAB5890-7642-6141-A0C0-04BE2BC57313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA359A7-6583-6340-8732-8ADB87CF8A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{BDE260DA-6967-4512-804D-0CB1EFD34F16}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -522,7 +521,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1004,11 +1003,11 @@
         <v>-16</v>
       </c>
       <c r="H14">
-        <v>-47.44</v>
+        <v>47.44</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>-63.44</v>
+        <v>31.439999999999998</v>
       </c>
       <c r="K14" t="s">
         <v>29</v>
@@ -1035,14 +1034,14 @@
         <v>64.05</v>
       </c>
       <c r="G15">
-        <v>-17.7</v>
+        <v>17.7</v>
       </c>
       <c r="H15">
-        <v>-47.55</v>
+        <v>47.55</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>-65.25</v>
+        <v>65.25</v>
       </c>
       <c r="K15" t="s">
         <v>30</v>
@@ -1069,14 +1068,14 @@
         <v>72.930000000000007</v>
       </c>
       <c r="G16">
-        <v>-14.67</v>
+        <v>14.67</v>
       </c>
       <c r="H16">
-        <v>-50.06</v>
+        <v>50.06</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>-64.73</v>
+        <v>64.73</v>
       </c>
       <c r="K16" t="s">
         <v>31</v>
@@ -1106,11 +1105,11 @@
         <v>15.14</v>
       </c>
       <c r="H17">
-        <v>-47.45</v>
+        <v>47.45</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>-32.31</v>
+        <v>62.59</v>
       </c>
       <c r="K17" t="s">
         <v>32</v>
@@ -1137,14 +1136,14 @@
         <v>95.28</v>
       </c>
       <c r="G18">
-        <v>-18.920000000000002</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="H18">
         <v>71.27</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>52.349999999999994</v>
+        <v>90.19</v>
       </c>
       <c r="K18" t="s">
         <v>33</v>
@@ -1171,14 +1170,14 @@
         <v>90.009999999999991</v>
       </c>
       <c r="G19">
-        <v>-24.19</v>
+        <v>24.19</v>
       </c>
       <c r="H19">
-        <v>-36.549999999999997</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>-60.739999999999995</v>
+        <v>60.739999999999995</v>
       </c>
       <c r="K19" t="s">
         <v>34</v>

--- a/LLM Timing and Memory Tests.xlsx
+++ b/LLM Timing and Memory Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirajakmal/Downloads/ds4300/4300-rag-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA359A7-6583-6340-8732-8ADB87CF8A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C740C467-69D6-CA41-9786-37574A5B3070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{BDE260DA-6967-4512-804D-0CB1EFD34F16}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Embedding Model</t>
   </si>
@@ -144,19 +144,28 @@
   </si>
   <si>
     <t>Embedding Time (Seconds)</t>
+  </si>
+  <si>
+    <t>Weighted Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,11 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +531,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,6 +577,9 @@
       <c r="I1" t="s">
         <v>15</v>
       </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
@@ -601,6 +614,10 @@
         <f>SUM(G2:H2)</f>
         <v>5.72</v>
       </c>
+      <c r="J2" s="2">
+        <f>0.4*(F2) + 0.6*(I2)</f>
+        <v>28.26</v>
+      </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
@@ -635,6 +652,10 @@
         <f t="shared" ref="I3:I19" si="1">SUM(G3:H3)</f>
         <v>11.129999999999999</v>
       </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J19" si="2">0.4*(F3) + 0.6*(I3)</f>
+        <v>66.213999999999999</v>
+      </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
@@ -669,6 +690,10 @@
         <f t="shared" si="1"/>
         <v>5.5600000000000005</v>
       </c>
+      <c r="J4" s="2">
+        <f t="shared" si="2"/>
+        <v>52.823999999999998</v>
+      </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
@@ -703,6 +728,10 @@
         <f t="shared" si="1"/>
         <v>5.7299999999999995</v>
       </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>32.094000000000001</v>
+      </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
@@ -737,6 +766,10 @@
         <f t="shared" si="1"/>
         <v>24.77</v>
       </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>83.041999999999987</v>
+      </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
@@ -771,6 +804,10 @@
         <f t="shared" si="1"/>
         <v>5.58</v>
       </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>64.640000000000015</v>
+      </c>
       <c r="K7" t="s">
         <v>22</v>
       </c>
@@ -805,6 +842,10 @@
         <f t="shared" si="1"/>
         <v>1.1200000000000001</v>
       </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>29.548000000000002</v>
+      </c>
       <c r="K8" t="s">
         <v>23</v>
       </c>
@@ -839,6 +880,10 @@
         <f t="shared" si="1"/>
         <v>67.11999999999999</v>
       </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>102.548</v>
+      </c>
       <c r="K9" t="s">
         <v>24</v>
       </c>
@@ -873,6 +918,10 @@
         <f t="shared" si="1"/>
         <v>2.97</v>
       </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>59.589999999999989</v>
+      </c>
       <c r="K10" t="s">
         <v>25</v>
       </c>
@@ -907,6 +956,10 @@
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>35.064000000000007</v>
+      </c>
       <c r="K11" t="s">
         <v>26</v>
       </c>
@@ -941,6 +994,10 @@
         <f t="shared" si="1"/>
         <v>190.79999999999998</v>
       </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>186.54</v>
+      </c>
       <c r="K12" t="s">
         <v>27</v>
       </c>
@@ -975,6 +1032,10 @@
         <f t="shared" si="1"/>
         <v>1.22</v>
       </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>61.039999999999992</v>
+      </c>
       <c r="K13" t="s">
         <v>28</v>
       </c>
@@ -1009,6 +1070,10 @@
         <f t="shared" si="1"/>
         <v>31.439999999999998</v>
       </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>33.448</v>
+      </c>
       <c r="K14" t="s">
         <v>29</v>
       </c>
@@ -1043,6 +1108,10 @@
         <f t="shared" si="1"/>
         <v>65.25</v>
       </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>64.77</v>
+      </c>
       <c r="K15" t="s">
         <v>30</v>
       </c>
@@ -1077,6 +1146,10 @@
         <f t="shared" si="1"/>
         <v>64.73</v>
       </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>68.010000000000005</v>
+      </c>
       <c r="K16" t="s">
         <v>31</v>
       </c>
@@ -1111,6 +1184,10 @@
         <f t="shared" si="1"/>
         <v>62.59</v>
       </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>80.474000000000018</v>
+      </c>
       <c r="K17" t="s">
         <v>32</v>
       </c>
@@ -1145,6 +1222,10 @@
         <f t="shared" si="1"/>
         <v>90.19</v>
       </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>92.225999999999999</v>
+      </c>
       <c r="K18" t="s">
         <v>33</v>
       </c>
@@ -1178,6 +1259,10 @@
       <c r="I19">
         <f t="shared" si="1"/>
         <v>60.739999999999995</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>72.447999999999993</v>
       </c>
       <c r="K19" t="s">
         <v>34</v>

--- a/LLM Timing and Memory Tests.xlsx
+++ b/LLM Timing and Memory Tests.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sirajakmal/Downloads/ds4300/4300-rag-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C740C467-69D6-CA41-9786-37574A5B3070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA10C022-50EB-6649-B80D-152858024CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{BDE260DA-6967-4512-804D-0CB1EFD34F16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -71,21 +74,6 @@
     <t>Faiss</t>
   </si>
   <si>
-    <t>LLM Response Time (Seconds)</t>
-  </si>
-  <si>
-    <t>Embedding Memory (MB)</t>
-  </si>
-  <si>
-    <t>Query Memory (MB)</t>
-  </si>
-  <si>
-    <t>Total Time (Seconds)</t>
-  </si>
-  <si>
-    <t>Total Memory (MB)</t>
-  </si>
-  <si>
     <t>Query Response ID in Doc:</t>
   </si>
   <si>
@@ -143,10 +131,25 @@
     <t>3,2,3</t>
   </si>
   <si>
-    <t>Embedding Time (Seconds)</t>
-  </si>
-  <si>
     <t>Weighted Score</t>
+  </si>
+  <si>
+    <t>Embedding Time (Seconds) (average over 3 attempts)</t>
+  </si>
+  <si>
+    <t>LLM Response Time (Seconds) (average over 3 attempts)</t>
+  </si>
+  <si>
+    <t>Total Time (Seconds) (average over 3 attempts)</t>
+  </si>
+  <si>
+    <t>Embedding Memory (MB) (average over 3 attempts)</t>
+  </si>
+  <si>
+    <t>Query Memory (MB) (average over 3 attempts)</t>
+  </si>
+  <si>
+    <t>Total Memory (MB) (average over 3 attempts)</t>
   </si>
 </sst>
 </file>
@@ -531,22 +534,22 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -560,33 +563,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -595,69 +598,69 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>41.14</v>
+        <v>102.83</v>
       </c>
       <c r="E2">
-        <v>20.93</v>
+        <v>20.89</v>
       </c>
       <c r="F2">
         <f>SUM(D2:E2)</f>
-        <v>62.07</v>
+        <v>123.72</v>
       </c>
       <c r="G2">
-        <v>5.71</v>
+        <v>5.53</v>
       </c>
       <c r="H2">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I2">
         <f>SUM(G2:H2)</f>
-        <v>5.72</v>
+        <v>5.5600000000000005</v>
       </c>
       <c r="J2" s="2">
         <f>0.4*(F2) + 0.6*(I2)</f>
-        <v>28.26</v>
+        <v>52.823999999999998</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3">
-        <v>137.69999999999999</v>
+        <v>104.48</v>
       </c>
       <c r="E3">
-        <v>11.14</v>
+        <v>48.75</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F19" si="0">SUM(D3:E3)</f>
-        <v>148.83999999999997</v>
+        <f>SUM(D3:E3)</f>
+        <v>153.23000000000002</v>
       </c>
       <c r="G3">
-        <v>5.71</v>
+        <v>5.53</v>
       </c>
       <c r="H3">
-        <v>5.42</v>
+        <v>0.05</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I19" si="1">SUM(G3:H3)</f>
-        <v>11.129999999999999</v>
+        <f>SUM(G3:H3)</f>
+        <v>5.58</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J19" si="2">0.4*(F3) + 0.6*(I3)</f>
-        <v>66.213999999999999</v>
+        <f>0.4*(F3) + 0.6*(I3)</f>
+        <v>64.640000000000015</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -668,110 +671,110 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>102.83</v>
+        <v>115.27</v>
       </c>
       <c r="E4">
-        <v>20.89</v>
+        <v>29.25</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>123.72</v>
+        <f>SUM(D4:E4)</f>
+        <v>144.51999999999998</v>
       </c>
       <c r="G4">
-        <v>5.53</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H4">
-        <v>0.03</v>
+        <v>0.77</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
-        <v>5.5600000000000005</v>
+        <f>SUM(G4:H4)</f>
+        <v>2.97</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="2"/>
-        <v>52.823999999999998</v>
+        <f>0.4*(F4) + 0.6*(I4)</f>
+        <v>59.589999999999989</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>41.23</v>
+        <v>112.32</v>
       </c>
       <c r="E5">
-        <v>30.41</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>71.64</v>
+        <f>SUM(D5:E5)</f>
+        <v>150.76999999999998</v>
       </c>
       <c r="G5">
-        <v>5.71</v>
+        <v>1.21</v>
       </c>
       <c r="H5">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
-        <v>5.7299999999999995</v>
+        <f>SUM(G5:H5)</f>
+        <v>1.22</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
-        <v>32.094000000000001</v>
+        <f>0.4*(F5) + 0.6*(I5)</f>
+        <v>61.039999999999992</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>134.97999999999999</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="E6">
-        <v>35.47</v>
+        <v>36.479999999999997</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>170.45</v>
+        <f>SUM(D6:E6)</f>
+        <v>72.930000000000007</v>
       </c>
       <c r="G6">
-        <v>5.71</v>
+        <v>14.67</v>
       </c>
       <c r="H6">
-        <v>19.059999999999999</v>
+        <v>50.06</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
-        <v>24.77</v>
+        <f>SUM(G6:H6)</f>
+        <v>64.73</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
-        <v>83.041999999999987</v>
+        <f>0.4*(F6) + 0.6*(I6)</f>
+        <v>68.010000000000005</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -782,115 +785,115 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>104.48</v>
+        <v>36.32</v>
       </c>
       <c r="E7">
-        <v>48.75</v>
+        <v>53.69</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>153.23000000000002</v>
+        <f>SUM(D7:E7)</f>
+        <v>90.009999999999991</v>
       </c>
       <c r="G7">
-        <v>5.53</v>
+        <v>24.19</v>
       </c>
       <c r="H7">
-        <v>0.05</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>5.58</v>
+        <f>SUM(G7:H7)</f>
+        <v>60.739999999999995</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="2"/>
-        <v>64.640000000000015</v>
+        <f>0.4*(F7) + 0.6*(I7)</f>
+        <v>72.447999999999993</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>49.76</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="E8">
-        <v>22.43</v>
+        <v>11.14</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>72.19</v>
+        <f>SUM(D8:E8)</f>
+        <v>148.83999999999997</v>
       </c>
       <c r="G8">
-        <v>1.1000000000000001</v>
+        <v>5.71</v>
       </c>
       <c r="H8">
-        <v>0.02</v>
+        <v>5.42</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>1.1200000000000001</v>
+        <f>SUM(G8:H8)</f>
+        <v>11.129999999999999</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
-        <v>29.548000000000002</v>
+        <f>0.4*(F8) + 0.6*(I8)</f>
+        <v>66.213999999999999</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>143.49</v>
+        <v>134.97999999999999</v>
       </c>
       <c r="E9">
-        <v>12.2</v>
+        <v>35.47</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>155.69</v>
+        <f>SUM(D9:E9)</f>
+        <v>170.45</v>
       </c>
       <c r="G9">
-        <v>178.73</v>
+        <v>5.71</v>
       </c>
       <c r="H9">
-        <v>-111.61</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>67.11999999999999</v>
+        <f>SUM(G9:H9)</f>
+        <v>24.77</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
-        <v>102.548</v>
+        <f>0.4*(F9) + 0.6*(I9)</f>
+        <v>83.041999999999987</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -899,36 +902,36 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>115.27</v>
+        <v>143.49</v>
       </c>
       <c r="E10">
-        <v>29.25</v>
+        <v>12.2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>144.51999999999998</v>
+        <f>SUM(D10:E10)</f>
+        <v>155.69</v>
       </c>
       <c r="G10">
-        <v>2.2000000000000002</v>
+        <v>178.73</v>
       </c>
       <c r="H10">
-        <v>0.77</v>
+        <v>-111.61</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>2.97</v>
+        <f>SUM(G10:H10)</f>
+        <v>67.11999999999999</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
-        <v>59.589999999999989</v>
+        <f>0.4*(F10) + 0.6*(I10)</f>
+        <v>102.548</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -937,31 +940,31 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>49.87</v>
+        <v>142.21</v>
       </c>
       <c r="E11">
-        <v>35.69</v>
+        <v>37.94</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>85.56</v>
+        <f>SUM(D11:E11)</f>
+        <v>180.15</v>
       </c>
       <c r="G11">
-        <v>0.61</v>
+        <v>190.39</v>
       </c>
       <c r="H11">
-        <v>0.79</v>
+        <v>0.41</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>1.4</v>
+        <f>SUM(G11:H11)</f>
+        <v>190.79999999999998</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
-        <v>35.064000000000007</v>
+        <f>0.4*(F11) + 0.6*(I11)</f>
+        <v>186.54</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -969,72 +972,72 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>142.21</v>
+        <v>23.34</v>
       </c>
       <c r="E12">
-        <v>37.94</v>
+        <v>40.71</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>180.15</v>
+        <f>SUM(D12:E12)</f>
+        <v>64.05</v>
       </c>
       <c r="G12">
-        <v>190.39</v>
+        <v>17.7</v>
       </c>
       <c r="H12">
-        <v>0.41</v>
+        <v>47.55</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>190.79999999999998</v>
+        <f>SUM(G12:H12)</f>
+        <v>65.25</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
-        <v>186.54</v>
+        <f>0.4*(F12) + 0.6*(I12)</f>
+        <v>64.77</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>112.32</v>
+        <v>24.01</v>
       </c>
       <c r="E13">
-        <v>38.450000000000003</v>
+        <v>71.27</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>150.76999999999998</v>
+        <f>SUM(D13:E13)</f>
+        <v>95.28</v>
       </c>
       <c r="G13">
-        <v>1.21</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="H13">
-        <v>0.01</v>
+        <v>71.27</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>1.22</v>
+        <f>SUM(G13:H13)</f>
+        <v>90.19</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
-        <v>61.039999999999992</v>
+        <f>0.4*(F13) + 0.6*(I13)</f>
+        <v>92.225999999999999</v>
       </c>
       <c r="K13" t="s">
         <v>28</v>
@@ -1048,110 +1051,110 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>26.73</v>
+        <v>41.14</v>
       </c>
       <c r="E14">
-        <v>9.73</v>
+        <v>20.93</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>36.46</v>
+        <f>SUM(D14:E14)</f>
+        <v>62.07</v>
       </c>
       <c r="G14">
-        <v>-16</v>
+        <v>5.71</v>
       </c>
       <c r="H14">
-        <v>47.44</v>
+        <v>0.01</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
-        <v>31.439999999999998</v>
+        <f>SUM(G14:H14)</f>
+        <v>5.72</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
-        <v>33.448</v>
+        <f>0.4*(F14) + 0.6*(I14)</f>
+        <v>28.26</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>23.34</v>
+        <v>41.23</v>
       </c>
       <c r="E15">
-        <v>40.71</v>
+        <v>30.41</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>64.05</v>
+        <f>SUM(D15:E15)</f>
+        <v>71.64</v>
       </c>
       <c r="G15">
-        <v>17.7</v>
+        <v>5.71</v>
       </c>
       <c r="H15">
-        <v>47.55</v>
+        <v>0.02</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>65.25</v>
+        <f>SUM(G15:H15)</f>
+        <v>5.7299999999999995</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
-        <v>64.77</v>
+        <f>0.4*(F15) + 0.6*(I15)</f>
+        <v>32.094000000000001</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>36.450000000000003</v>
+        <v>49.76</v>
       </c>
       <c r="E16">
-        <v>36.479999999999997</v>
+        <v>22.43</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>72.930000000000007</v>
+        <f>SUM(D16:E16)</f>
+        <v>72.19</v>
       </c>
       <c r="G16">
-        <v>14.67</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H16">
-        <v>50.06</v>
+        <v>0.02</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
-        <v>64.73</v>
+        <f>SUM(G16:H16)</f>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
-        <v>68.010000000000005</v>
+        <f>0.4*(F16) + 0.6*(I16)</f>
+        <v>29.548000000000002</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1162,77 +1165,77 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>27.1</v>
+        <v>49.87</v>
       </c>
       <c r="E17">
-        <v>80.2</v>
+        <v>35.69</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>107.30000000000001</v>
+        <f>SUM(D17:E17)</f>
+        <v>85.56</v>
       </c>
       <c r="G17">
-        <v>15.14</v>
+        <v>0.61</v>
       </c>
       <c r="H17">
-        <v>47.45</v>
+        <v>0.79</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>62.59</v>
+        <f>SUM(G17:H17)</f>
+        <v>1.4</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
-        <v>80.474000000000018</v>
+        <f>0.4*(F17) + 0.6*(I17)</f>
+        <v>35.064000000000007</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18">
-        <v>24.01</v>
+        <v>26.73</v>
       </c>
       <c r="E18">
-        <v>71.27</v>
+        <v>9.73</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>95.28</v>
+        <f>SUM(D18:E18)</f>
+        <v>36.46</v>
       </c>
       <c r="G18">
-        <v>18.920000000000002</v>
+        <v>-16</v>
       </c>
       <c r="H18">
-        <v>71.27</v>
+        <v>47.44</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>90.19</v>
+        <f>SUM(G18:H18)</f>
+        <v>31.439999999999998</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
-        <v>92.225999999999999</v>
+        <f>0.4*(F18) + 0.6*(I18)</f>
+        <v>33.448</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1241,34 +1244,39 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <v>36.32</v>
+        <v>27.1</v>
       </c>
       <c r="E19">
-        <v>53.69</v>
+        <v>80.2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>90.009999999999991</v>
+        <f>SUM(D19:E19)</f>
+        <v>107.30000000000001</v>
       </c>
       <c r="G19">
-        <v>24.19</v>
+        <v>15.14</v>
       </c>
       <c r="H19">
-        <v>36.549999999999997</v>
+        <v>47.45</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
-        <v>60.739999999999995</v>
+        <f>SUM(G19:H19)</f>
+        <v>62.59</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
-        <v>72.447999999999993</v>
+        <f>0.4*(F19) + 0.6*(I19)</f>
+        <v>80.474000000000018</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K19" xr:uid="{7A56B2A7-EF14-4BD9-B3C8-816356ACEDD1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K19">
+      <sortCondition ref="A1:A19"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>